--- a/XX_Url/AmericanStandardUS.xlsx
+++ b/XX_Url/AmericanStandardUS.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B0E4E69-0A11-4B3F-976A-7A3FF1B0F290}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B4788A-AD6A-4A9D-8429-D05818BC2952}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeDepot_URL" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XX_Url/AmericanStandardUS.xlsx
+++ b/XX_Url/AmericanStandardUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B4788A-AD6A-4A9D-8429-D05818BC2952}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9C18AB-D8B8-4BDE-ABFB-1A9652206264}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Linea</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Bowl Height</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Cadet 3</t>
   </si>
   <si>
@@ -69,15 +66,9 @@
     <t>Capacidad (Gpl)</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>American Standard</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t>Madera</t>
   </si>
   <si>
-    <t>Cadet PA</t>
-  </si>
-  <si>
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-16-GPF-60-LPF-Left-Trip-Lever-Chair-Height-Elongated-Front-Toilet/WHITE-270AA001020</t>
   </si>
   <si>
@@ -244,6 +232,81 @@
   </si>
   <si>
     <t>https://www.americanstandard-us.com/Floor-Standing-Toilets/Cadet-3-10-in-Rough-In-16-GPF-Toilet-Tank/WHITE-4019001N020</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 CTK 12 Std EL 1,6 gpf</t>
+  </si>
+  <si>
+    <t>American Std Cadet 12 ADA EL 1,6 gpf Combo</t>
+  </si>
+  <si>
+    <t>American Std Cadet 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>American Std Madera ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>American Std Reliant 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>American Std Reliant 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>American Std Reliant ADA EL Bowl</t>
+  </si>
+  <si>
+    <t>American Std Reliant Std EL Bowl</t>
+  </si>
+  <si>
+    <t>American Std Reliant Std RF Bowl</t>
+  </si>
+  <si>
+    <t>American Std Reliant 12 ADA EL 1,28 gpf Combo</t>
+  </si>
+  <si>
+    <t>American Std Reliant 12 Std EL 1,28 gpf Combo</t>
+  </si>
+  <si>
+    <t>American Std Reliant 12 Std RF 1,28 gpf Combo</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CTK</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Cadet</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>1,1 / 1,6</t>
+  </si>
+  <si>
+    <t>Round Front</t>
+  </si>
+  <si>
+    <t>Homologo Mansfield</t>
   </si>
 </sst>
 </file>
@@ -777,11 +840,11 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1138,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,433 +1212,553 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="214" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>1.6</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="K14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{C4F61E37-1AEA-48FE-9816-E6A677306CB0}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{658D314F-0352-458F-92F7-A912B6D2B7CC}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{C4F61E37-1AEA-48FE-9816-E6A677306CB0}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{658D314F-0352-458F-92F7-A912B6D2B7CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
